--- a/StateSpace.xlsx
+++ b/StateSpace.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaralinders/Documents/mprog/PyCharm/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaralinders/Documents/mprog/PyCharm/Proteins/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="26">
   <si>
     <t>Randomizer</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>zit al op -13 bij 100000 keer prunen…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bij 350000 keer prunen op -7 … </t>
   </si>
 </sst>
 </file>
@@ -625,18 +631,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -649,79 +643,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -804,6 +735,81 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1105,7 +1111,7 @@
   <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.2"/>
@@ -1122,1269 +1128,1273 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="40" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="16" t="s">
+      <c r="I1" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="48"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="17"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="16" t="s">
+      <c r="M1" s="48"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="16" t="s">
+      <c r="P1" s="48"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="17"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="16" t="s">
+      <c r="S1" s="48"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="17"/>
-      <c r="W1" s="18"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="50"/>
     </row>
     <row r="2" spans="1:23" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="13" t="s">
+      <c r="A2" s="54"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="O2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="P2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="Q2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="14" t="s">
+      <c r="R2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="S2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="T2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="14" t="s">
+      <c r="U2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="13" t="s">
+      <c r="V2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="W2" s="47" t="s">
+      <c r="W2" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="65">
         <v>8</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="66">
         <v>2</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="67">
         <v>6</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="63">
         <v>0</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="8">
         <f>4^(B3-2)</f>
         <v>4096</v>
       </c>
-      <c r="H3" s="41">
+      <c r="H3" s="16">
         <v>-3</v>
       </c>
-      <c r="I3" s="48">
+      <c r="I3" s="23">
         <v>-3</v>
       </c>
-      <c r="J3" s="43">
+      <c r="J3" s="18">
         <v>100</v>
       </c>
-      <c r="K3" s="57">
+      <c r="K3" s="32">
         <f>(100/G3)*J3</f>
         <v>2.44140625</v>
       </c>
-      <c r="L3" s="48">
+      <c r="L3" s="23">
         <v>-3</v>
       </c>
-      <c r="M3" s="43">
+      <c r="M3" s="18">
         <v>100</v>
       </c>
-      <c r="N3" s="60">
+      <c r="N3" s="35">
         <f>(100/G3)*M3</f>
         <v>2.44140625</v>
       </c>
-      <c r="O3" s="49">
+      <c r="O3" s="24">
         <v>-3</v>
       </c>
-      <c r="P3" s="43">
+      <c r="P3" s="18">
         <v>100</v>
       </c>
-      <c r="Q3" s="60">
+      <c r="Q3" s="35">
         <f>(100/G3)*P3</f>
         <v>2.44140625</v>
       </c>
-      <c r="R3" s="49">
+      <c r="R3" s="24">
         <v>-3</v>
       </c>
-      <c r="S3" s="43">
+      <c r="S3" s="18">
         <v>780</v>
       </c>
-      <c r="T3" s="63">
+      <c r="T3" s="38">
         <f>(100/G3)*S3</f>
         <v>19.04296875</v>
       </c>
-      <c r="U3" s="49">
+      <c r="U3" s="24">
         <v>-3</v>
       </c>
-      <c r="V3" s="43">
-        <v>0</v>
-      </c>
-      <c r="W3" s="66">
+      <c r="V3" s="18">
+        <v>0</v>
+      </c>
+      <c r="W3" s="41">
         <f>(100/G3)*V3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="19">
+      <c r="A4" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="11"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="63"/>
       <c r="F4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="8">
         <f>6^(B3-2)</f>
         <v>46656</v>
       </c>
-      <c r="H4" s="41">
+      <c r="H4" s="16">
         <v>-3</v>
       </c>
-      <c r="I4" s="48">
+      <c r="I4" s="23">
         <v>-3</v>
       </c>
-      <c r="J4" s="43">
+      <c r="J4" s="18">
         <v>100</v>
       </c>
-      <c r="K4" s="58">
+      <c r="K4" s="33">
         <f t="shared" ref="K4:K20" si="0">(100/G4)*J4</f>
         <v>0.21433470507544583</v>
       </c>
-      <c r="L4" s="48">
+      <c r="L4" s="23">
         <v>-3</v>
       </c>
-      <c r="M4" s="43">
+      <c r="M4" s="18">
         <v>100</v>
       </c>
-      <c r="N4" s="60">
+      <c r="N4" s="35">
         <f t="shared" ref="N4:N20" si="1">(100/G4)*M4</f>
         <v>0.21433470507544583</v>
       </c>
-      <c r="O4" s="49">
+      <c r="O4" s="24">
         <v>-3</v>
       </c>
-      <c r="P4" s="43">
+      <c r="P4" s="18">
         <v>100</v>
       </c>
-      <c r="Q4" s="60">
+      <c r="Q4" s="35">
         <f t="shared" ref="Q4:Q20" si="2">(100/G4)*P4</f>
         <v>0.21433470507544583</v>
       </c>
-      <c r="R4" s="49">
+      <c r="R4" s="24">
         <v>-3</v>
       </c>
-      <c r="S4" s="43">
+      <c r="S4" s="18">
         <v>16926</v>
       </c>
-      <c r="T4" s="63">
+      <c r="T4" s="38">
         <f t="shared" ref="T4:T20" si="3">(100/G4)*S4</f>
         <v>36.278292181069958</v>
       </c>
-      <c r="U4" s="49">
+      <c r="U4" s="24">
         <v>-3</v>
       </c>
-      <c r="V4" s="43">
-        <v>0</v>
-      </c>
-      <c r="W4" s="67">
+      <c r="V4" s="18">
+        <v>0</v>
+      </c>
+      <c r="W4" s="42">
         <f t="shared" ref="W4:W20" si="4">(100/G4)*V4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="19">
+      <c r="A5" s="12">
         <v>2</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="65">
         <v>14</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="66">
         <v>4</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="67">
         <v>10</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="63">
         <v>0</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="8">
         <f>4^(B5-2)</f>
         <v>16777216</v>
       </c>
-      <c r="H5" s="41">
+      <c r="H5" s="16">
         <v>-6</v>
       </c>
-      <c r="I5" s="50">
+      <c r="I5" s="25">
         <v>-5</v>
       </c>
-      <c r="J5" s="43">
+      <c r="J5" s="18">
         <v>1000</v>
       </c>
-      <c r="K5" s="58">
+      <c r="K5" s="33">
         <f t="shared" si="0"/>
         <v>5.9604644775390625E-3</v>
       </c>
-      <c r="L5" s="50">
+      <c r="L5" s="25">
         <v>-5</v>
       </c>
-      <c r="M5" s="43">
+      <c r="M5" s="18">
         <v>1000</v>
       </c>
-      <c r="N5" s="60">
+      <c r="N5" s="35">
         <f t="shared" si="1"/>
         <v>5.9604644775390625E-3</v>
       </c>
-      <c r="O5" s="49">
+      <c r="O5" s="24">
         <v>-6</v>
       </c>
-      <c r="P5" s="43">
+      <c r="P5" s="18">
         <v>1000</v>
       </c>
-      <c r="Q5" s="60">
+      <c r="Q5" s="35">
         <f t="shared" si="2"/>
         <v>5.9604644775390625E-3</v>
       </c>
-      <c r="R5" s="49">
+      <c r="R5" s="24">
         <v>-6</v>
       </c>
-      <c r="S5" s="43">
+      <c r="S5" s="18">
         <v>324932</v>
       </c>
-      <c r="T5" s="63">
+      <c r="T5" s="38">
         <f t="shared" si="3"/>
         <v>1.9367456436157227</v>
       </c>
-      <c r="U5" s="49">
+      <c r="U5" s="24">
         <v>-6</v>
       </c>
-      <c r="V5" s="43">
+      <c r="V5" s="18">
         <v>469</v>
       </c>
-      <c r="W5" s="67">
+      <c r="W5" s="42">
         <f t="shared" si="4"/>
         <v>2.7954578399658203E-3</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="19">
+      <c r="A6" s="12">
         <v>2</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="11"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="63"/>
       <c r="F6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="8">
         <f>6^(B5-2)</f>
         <v>2176782336</v>
       </c>
-      <c r="H6" s="41">
+      <c r="H6" s="16">
         <v>-7</v>
       </c>
-      <c r="I6" s="50">
+      <c r="I6" s="25">
         <v>-6</v>
       </c>
-      <c r="J6" s="43">
+      <c r="J6" s="18">
         <v>1000</v>
       </c>
-      <c r="K6" s="58">
+      <c r="K6" s="33">
         <f t="shared" si="0"/>
         <v>4.5939365799778341E-5</v>
       </c>
-      <c r="L6" s="50">
+      <c r="L6" s="25">
         <v>-6</v>
       </c>
-      <c r="M6" s="43">
+      <c r="M6" s="18">
         <v>1000</v>
       </c>
-      <c r="N6" s="60">
+      <c r="N6" s="35">
         <f t="shared" si="1"/>
         <v>4.5939365799778341E-5</v>
       </c>
-      <c r="O6" s="49">
+      <c r="O6" s="24">
         <v>-7</v>
       </c>
-      <c r="P6" s="43">
+      <c r="P6" s="18">
         <v>1000</v>
       </c>
-      <c r="Q6" s="60">
+      <c r="Q6" s="35">
         <f t="shared" si="2"/>
         <v>4.5939365799778341E-5</v>
       </c>
-      <c r="R6" s="56">
+      <c r="R6" s="31">
         <v>-5</v>
       </c>
-      <c r="S6" s="43">
+      <c r="S6" s="18">
         <v>1000000</v>
       </c>
-      <c r="T6" s="63">
+      <c r="T6" s="38">
         <f t="shared" si="3"/>
         <v>4.5939365799778344E-2</v>
       </c>
-      <c r="U6" s="49">
+      <c r="U6" s="24">
         <v>-7</v>
       </c>
-      <c r="V6" s="43">
-        <v>72108</v>
-      </c>
-      <c r="W6" s="67">
+      <c r="V6" s="18">
+        <v>62466</v>
+      </c>
+      <c r="W6" s="42">
         <f t="shared" si="4"/>
-        <v>3.3125957890904165E-3</v>
+        <v>2.8696484240489538E-3</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19">
+      <c r="A7" s="12">
         <v>3</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="65">
         <v>20</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="66">
         <v>10</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="67">
         <v>10</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="63">
         <v>0</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="12">
-        <f t="shared" ref="G7:G20" si="5">4^(B7-2)</f>
+      <c r="G7" s="8">
+        <f t="shared" ref="G7" si="5">4^(B7-2)</f>
         <v>68719476736</v>
       </c>
-      <c r="H7" s="41">
+      <c r="H7" s="16">
         <v>-9</v>
       </c>
-      <c r="I7" s="50">
+      <c r="I7" s="25">
         <v>-8</v>
       </c>
-      <c r="J7" s="43">
+      <c r="J7" s="18">
         <v>1000000</v>
       </c>
-      <c r="K7" s="58">
+      <c r="K7" s="33">
         <f t="shared" si="0"/>
         <v>1.4551915228366852E-3</v>
       </c>
-      <c r="L7" s="55">
+      <c r="L7" s="30">
         <v>-5</v>
       </c>
-      <c r="M7" s="43">
-        <v>100000</v>
-      </c>
-      <c r="N7" s="60">
+      <c r="M7" s="18">
+        <v>100000</v>
+      </c>
+      <c r="N7" s="35">
         <f t="shared" si="1"/>
         <v>1.4551915228366852E-4</v>
       </c>
-      <c r="O7" s="51">
+      <c r="O7" s="26">
         <v>-8</v>
       </c>
-      <c r="P7" s="43">
-        <v>100000</v>
-      </c>
-      <c r="Q7" s="60">
+      <c r="P7" s="18">
+        <v>100000</v>
+      </c>
+      <c r="Q7" s="35">
         <f t="shared" si="2"/>
         <v>1.4551915228366852E-4</v>
       </c>
-      <c r="R7" s="56">
+      <c r="R7" s="31">
         <v>-7</v>
       </c>
-      <c r="S7" s="43">
+      <c r="S7" s="18">
         <v>3000000</v>
       </c>
-      <c r="T7" s="63">
+      <c r="T7" s="38">
         <f t="shared" si="3"/>
         <v>4.3655745685100555E-3</v>
       </c>
-      <c r="U7" s="49">
+      <c r="U7" s="24">
         <v>-9</v>
       </c>
-      <c r="V7" s="43">
-        <v>1297</v>
-      </c>
-      <c r="W7" s="67">
+      <c r="V7" s="18">
+        <v>617</v>
+      </c>
+      <c r="W7" s="42">
         <f t="shared" si="4"/>
-        <v>1.8873834051191807E-6</v>
+        <v>8.9785316959023476E-7</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19">
+      <c r="A8" s="12">
         <v>3</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="11"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="63"/>
       <c r="F8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="12">
-        <f t="shared" ref="G8:G20" si="6">6^(B7-2)</f>
+      <c r="G8" s="8">
+        <f t="shared" ref="G8" si="6">6^(B7-2)</f>
         <v>101559956668416</v>
       </c>
-      <c r="H8" s="41">
+      <c r="H8" s="16">
         <v>-11</v>
       </c>
-      <c r="I8" s="50">
+      <c r="I8" s="25">
         <v>-10</v>
       </c>
-      <c r="J8" s="43">
+      <c r="J8" s="18">
         <v>1000000</v>
       </c>
-      <c r="K8" s="58">
+      <c r="K8" s="33">
         <f t="shared" si="0"/>
         <v>9.8464004200485122E-7</v>
       </c>
-      <c r="L8" s="55">
+      <c r="L8" s="30">
         <v>-6</v>
       </c>
-      <c r="M8" s="43">
-        <v>100000</v>
-      </c>
-      <c r="N8" s="60">
+      <c r="M8" s="18">
+        <v>100000</v>
+      </c>
+      <c r="N8" s="35">
         <f t="shared" si="1"/>
         <v>9.8464004200485117E-8</v>
       </c>
-      <c r="O8" s="51">
+      <c r="O8" s="26">
         <v>-10</v>
       </c>
-      <c r="P8" s="43">
-        <v>100000</v>
-      </c>
-      <c r="Q8" s="60">
+      <c r="P8" s="18">
+        <v>100000</v>
+      </c>
+      <c r="Q8" s="35">
         <f t="shared" si="2"/>
         <v>9.8464004200485117E-8</v>
       </c>
-      <c r="R8" s="44"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="63">
+      <c r="R8" s="19"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U8" s="44"/>
-      <c r="V8" s="43"/>
-      <c r="W8" s="67">
+      <c r="U8" t="s">
+        <v>25</v>
+      </c>
+      <c r="V8" s="18"/>
+      <c r="W8" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19">
+      <c r="A9" s="12">
         <v>4</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="65">
         <v>36</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="66">
         <v>20</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="67">
         <v>16</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="63">
         <v>0</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="12">
-        <f t="shared" ref="G9:G20" si="7">4^(B9-2)</f>
+      <c r="G9" s="8">
+        <f t="shared" ref="G9" si="7">4^(B9-2)</f>
         <v>2.9514790517935283E+20</v>
       </c>
-      <c r="H9" s="41">
+      <c r="H9" s="16">
         <v>-14</v>
       </c>
-      <c r="I9" s="55">
+      <c r="I9" s="30">
         <v>-9</v>
       </c>
-      <c r="J9" s="43">
+      <c r="J9" s="18">
         <v>1000000</v>
       </c>
-      <c r="K9" s="58">
+      <c r="K9" s="33">
         <f t="shared" si="0"/>
         <v>3.3881317890172014E-13</v>
       </c>
-      <c r="L9" s="55">
+      <c r="L9" s="30">
         <v>-7</v>
       </c>
-      <c r="M9" s="43">
-        <v>100000</v>
-      </c>
-      <c r="N9" s="60">
+      <c r="M9" s="18">
+        <v>100000</v>
+      </c>
+      <c r="N9" s="35">
         <f t="shared" si="1"/>
         <v>3.3881317890172014E-14</v>
       </c>
-      <c r="O9" s="56">
+      <c r="O9" s="31">
         <v>-6</v>
       </c>
-      <c r="P9" s="43">
-        <v>100000</v>
-      </c>
-      <c r="Q9" s="60">
+      <c r="P9" s="18">
+        <v>100000</v>
+      </c>
+      <c r="Q9" s="35">
         <f t="shared" si="2"/>
         <v>3.3881317890172014E-14</v>
       </c>
-      <c r="R9" s="44"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="63">
+      <c r="R9" s="19"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U9" s="44"/>
-      <c r="V9" s="43"/>
-      <c r="W9" s="67">
+      <c r="U9" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="V9" s="18"/>
+      <c r="W9" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19">
+      <c r="A10" s="12">
         <v>4</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="11"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="63"/>
       <c r="F10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="12">
-        <f t="shared" ref="G10:G20" si="8">6^(B9-2)</f>
+      <c r="G10" s="8">
+        <f t="shared" ref="G10" si="8">6^(B9-2)</f>
         <v>2.8651179995807041E+26</v>
       </c>
-      <c r="H10" s="41">
+      <c r="H10" s="16">
         <v>-18</v>
       </c>
-      <c r="I10" s="55">
+      <c r="I10" s="30">
         <v>-9</v>
       </c>
-      <c r="J10" s="43">
+      <c r="J10" s="18">
         <v>1000000</v>
       </c>
-      <c r="K10" s="58">
+      <c r="K10" s="33">
         <f t="shared" si="0"/>
         <v>3.4902576443495349E-19</v>
       </c>
-      <c r="L10" s="55">
+      <c r="L10" s="30">
         <v>-9</v>
       </c>
-      <c r="M10" s="43">
-        <v>100000</v>
-      </c>
-      <c r="N10" s="60">
+      <c r="M10" s="18">
+        <v>100000</v>
+      </c>
+      <c r="N10" s="35">
         <f t="shared" si="1"/>
         <v>3.4902576443495346E-20</v>
       </c>
-      <c r="O10" s="56">
+      <c r="O10" s="31">
         <v>-10</v>
       </c>
-      <c r="P10" s="43">
-        <v>100000</v>
-      </c>
-      <c r="Q10" s="60">
+      <c r="P10" s="18">
+        <v>100000</v>
+      </c>
+      <c r="Q10" s="35">
         <f t="shared" si="2"/>
         <v>3.4902576443495346E-20</v>
       </c>
-      <c r="R10" s="44"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="63">
+      <c r="R10" s="19"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U10" s="44"/>
-      <c r="V10" s="43"/>
-      <c r="W10" s="67">
+      <c r="U10" s="19"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19">
+      <c r="A11" s="12">
         <v>5</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="65">
         <v>50</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="66">
         <v>16</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="67">
         <v>24</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="63">
         <v>0</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="12">
-        <f t="shared" ref="G11:G20" si="9">4^(B11-2)</f>
+      <c r="G11" s="8">
+        <f t="shared" ref="G11" si="9">4^(B11-2)</f>
         <v>7.9228162514264338E+28</v>
       </c>
-      <c r="H11" s="41">
+      <c r="H11" s="16">
         <v>-21</v>
       </c>
-      <c r="I11" s="55">
+      <c r="I11" s="30">
         <v>-9</v>
       </c>
-      <c r="J11" s="43">
+      <c r="J11" s="18">
         <v>1000000</v>
       </c>
-      <c r="K11" s="58">
+      <c r="K11" s="33">
         <f t="shared" si="0"/>
         <v>1.2621774483536189E-21</v>
       </c>
-      <c r="L11" s="55">
+      <c r="L11" s="30">
         <v>-7</v>
       </c>
-      <c r="M11" s="43">
-        <v>100000</v>
-      </c>
-      <c r="N11" s="60">
+      <c r="M11" s="18">
+        <v>100000</v>
+      </c>
+      <c r="N11" s="35">
         <f t="shared" si="1"/>
         <v>1.2621774483536189E-22</v>
       </c>
-      <c r="O11" s="56">
+      <c r="O11" s="31">
         <v>-9</v>
       </c>
-      <c r="P11" s="43">
-        <v>100000</v>
-      </c>
-      <c r="Q11" s="60">
+      <c r="P11" s="18">
+        <v>100000</v>
+      </c>
+      <c r="Q11" s="35">
         <f t="shared" si="2"/>
         <v>1.2621774483536189E-22</v>
       </c>
-      <c r="R11" s="44"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="63">
+      <c r="R11" s="19"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U11" s="44"/>
-      <c r="V11" s="43"/>
-      <c r="W11" s="67">
+      <c r="U11" s="19"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19">
+      <c r="A12" s="12">
         <v>5</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="11"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="63"/>
       <c r="F12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="12">
-        <f t="shared" ref="G12:G20" si="10">6^(B11-2)</f>
+      <c r="G12" s="8">
+        <f t="shared" ref="G12" si="10">6^(B11-2)</f>
         <v>2.2452257707354558E+37</v>
       </c>
-      <c r="H12" s="41">
+      <c r="H12" s="16">
         <v>-34</v>
       </c>
-      <c r="I12" s="55">
+      <c r="I12" s="30">
         <v>-12</v>
       </c>
-      <c r="J12" s="43">
+      <c r="J12" s="18">
         <v>1000000</v>
       </c>
-      <c r="K12" s="58">
+      <c r="K12" s="33">
         <f t="shared" si="0"/>
         <v>4.453895073867942E-30</v>
       </c>
-      <c r="L12" s="55">
+      <c r="L12" s="30">
         <v>-11</v>
       </c>
-      <c r="M12" s="43">
-        <v>100000</v>
-      </c>
-      <c r="N12" s="60">
+      <c r="M12" s="18">
+        <v>100000</v>
+      </c>
+      <c r="N12" s="35">
         <f t="shared" si="1"/>
         <v>4.4538950738679422E-31</v>
       </c>
-      <c r="O12" s="56">
+      <c r="O12" s="31">
         <v>-11</v>
       </c>
-      <c r="P12" s="43">
-        <v>100000</v>
-      </c>
-      <c r="Q12" s="60">
+      <c r="P12" s="18">
+        <v>100000</v>
+      </c>
+      <c r="Q12" s="35">
         <f t="shared" si="2"/>
         <v>4.4538950738679422E-31</v>
       </c>
-      <c r="R12" s="44"/>
-      <c r="S12" s="43"/>
-      <c r="T12" s="63">
+      <c r="R12" s="19"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U12" s="44"/>
-      <c r="V12" s="43"/>
-      <c r="W12" s="67">
+      <c r="U12" s="19"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="19">
+      <c r="A13" s="12">
         <v>6</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="65">
         <v>36</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="66">
         <v>18</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="67">
         <v>14</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="63">
         <v>4</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="12">
-        <f t="shared" ref="G13:G20" si="11">4^(B13-2)</f>
+      <c r="G13" s="8">
+        <f t="shared" ref="G13" si="11">4^(B13-2)</f>
         <v>2.9514790517935283E+20</v>
       </c>
-      <c r="H13" s="41" t="s">
+      <c r="H13" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43">
+      <c r="I13" s="18"/>
+      <c r="J13" s="18">
         <v>1000000</v>
       </c>
-      <c r="K13" s="58">
+      <c r="K13" s="33">
         <f t="shared" si="0"/>
         <v>3.3881317890172014E-13</v>
       </c>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43">
-        <v>100000</v>
-      </c>
-      <c r="N13" s="60">
+      <c r="L13" s="18"/>
+      <c r="M13" s="18">
+        <v>100000</v>
+      </c>
+      <c r="N13" s="35">
         <f t="shared" si="1"/>
         <v>3.3881317890172014E-14</v>
       </c>
-      <c r="O13" s="44"/>
-      <c r="P13" s="43">
-        <v>100000</v>
-      </c>
-      <c r="Q13" s="60">
+      <c r="O13" s="19"/>
+      <c r="P13" s="18">
+        <v>100000</v>
+      </c>
+      <c r="Q13" s="35">
         <f t="shared" si="2"/>
         <v>3.3881317890172014E-14</v>
       </c>
-      <c r="R13" s="44"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="63">
+      <c r="R13" s="19"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U13" s="44"/>
-      <c r="V13" s="43"/>
-      <c r="W13" s="67">
+      <c r="U13" s="19"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="19">
+      <c r="A14" s="12">
         <v>6</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="11"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="63"/>
       <c r="F14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="12">
-        <f t="shared" ref="G14:G20" si="12">6^(B13-2)</f>
+      <c r="G14" s="8">
+        <f t="shared" ref="G14" si="12">6^(B13-2)</f>
         <v>2.8651179995807041E+26</v>
       </c>
-      <c r="H14" s="41" t="s">
+      <c r="H14" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43">
+      <c r="I14" s="18"/>
+      <c r="J14" s="18">
         <v>1000000</v>
       </c>
-      <c r="K14" s="58">
+      <c r="K14" s="33">
         <f t="shared" si="0"/>
         <v>3.4902576443495349E-19</v>
       </c>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43">
-        <v>100000</v>
-      </c>
-      <c r="N14" s="60">
+      <c r="L14" s="18"/>
+      <c r="M14" s="18">
+        <v>100000</v>
+      </c>
+      <c r="N14" s="35">
         <f t="shared" si="1"/>
         <v>3.4902576443495346E-20</v>
       </c>
-      <c r="O14" s="44"/>
-      <c r="P14" s="43">
-        <v>100000</v>
-      </c>
-      <c r="Q14" s="60">
+      <c r="O14" s="19"/>
+      <c r="P14" s="18">
+        <v>100000</v>
+      </c>
+      <c r="Q14" s="35">
         <f t="shared" si="2"/>
         <v>3.4902576443495346E-20</v>
       </c>
-      <c r="R14" s="44"/>
-      <c r="S14" s="43"/>
-      <c r="T14" s="63">
+      <c r="R14" s="19"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U14" s="44"/>
-      <c r="V14" s="43"/>
-      <c r="W14" s="67">
+      <c r="U14" s="19"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="19">
+      <c r="A15" s="12">
         <v>7</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="65">
         <v>36</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="66">
         <v>15</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="67">
         <v>11</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="63">
         <v>10</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="12">
-        <f t="shared" ref="G15:G20" si="13">4^(B15-2)</f>
+      <c r="G15" s="8">
+        <f t="shared" ref="G15" si="13">4^(B15-2)</f>
         <v>2.9514790517935283E+20</v>
       </c>
-      <c r="H15" s="41" t="s">
+      <c r="H15" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43">
+      <c r="I15" s="18"/>
+      <c r="J15" s="18">
         <v>1000000</v>
       </c>
-      <c r="K15" s="58">
+      <c r="K15" s="33">
         <f t="shared" si="0"/>
         <v>3.3881317890172014E-13</v>
       </c>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43">
-        <v>100000</v>
-      </c>
-      <c r="N15" s="60">
+      <c r="L15" s="18"/>
+      <c r="M15" s="18">
+        <v>100000</v>
+      </c>
+      <c r="N15" s="35">
         <f t="shared" si="1"/>
         <v>3.3881317890172014E-14</v>
       </c>
-      <c r="O15" s="44"/>
-      <c r="P15" s="43">
-        <v>100000</v>
-      </c>
-      <c r="Q15" s="60">
+      <c r="O15" s="19"/>
+      <c r="P15" s="18">
+        <v>100000</v>
+      </c>
+      <c r="Q15" s="35">
         <f t="shared" si="2"/>
         <v>3.3881317890172014E-14</v>
       </c>
-      <c r="R15" s="44"/>
-      <c r="S15" s="43"/>
-      <c r="T15" s="63">
+      <c r="R15" s="19"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U15" s="44"/>
-      <c r="V15" s="43"/>
-      <c r="W15" s="67">
+      <c r="U15" s="19"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="19">
+      <c r="A16" s="12">
         <v>7</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="11"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="63"/>
       <c r="F16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="12">
-        <f t="shared" ref="G16:G20" si="14">6^(B15-2)</f>
+      <c r="G16" s="8">
+        <f t="shared" ref="G16" si="14">6^(B15-2)</f>
         <v>2.8651179995807041E+26</v>
       </c>
-      <c r="H16" s="41" t="s">
+      <c r="H16" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43">
+      <c r="I16" s="18"/>
+      <c r="J16" s="18">
         <v>1000000</v>
       </c>
-      <c r="K16" s="58">
+      <c r="K16" s="33">
         <f t="shared" si="0"/>
         <v>3.4902576443495349E-19</v>
       </c>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43">
-        <v>100000</v>
-      </c>
-      <c r="N16" s="60">
+      <c r="L16" s="18"/>
+      <c r="M16" s="18">
+        <v>100000</v>
+      </c>
+      <c r="N16" s="35">
         <f t="shared" si="1"/>
         <v>3.4902576443495346E-20</v>
       </c>
-      <c r="O16" s="44"/>
-      <c r="P16" s="43">
-        <v>100000</v>
-      </c>
-      <c r="Q16" s="60">
+      <c r="O16" s="19"/>
+      <c r="P16" s="18">
+        <v>100000</v>
+      </c>
+      <c r="Q16" s="35">
         <f t="shared" si="2"/>
         <v>3.4902576443495346E-20</v>
       </c>
-      <c r="R16" s="44"/>
-      <c r="S16" s="43"/>
-      <c r="T16" s="63">
+      <c r="R16" s="19"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U16" s="44"/>
-      <c r="V16" s="43"/>
-      <c r="W16" s="67">
+      <c r="U16" s="19"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="19">
+      <c r="A17" s="12">
         <v>8</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="65">
         <v>50</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="66">
         <v>21</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="67">
         <v>19</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="63">
         <v>10</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="12">
-        <f t="shared" ref="G17:G20" si="15">4^(B17-2)</f>
+      <c r="G17" s="8">
+        <f t="shared" ref="G17" si="15">4^(B17-2)</f>
         <v>7.9228162514264338E+28</v>
       </c>
-      <c r="H17" s="41" t="s">
+      <c r="H17" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43">
+      <c r="I17" s="18"/>
+      <c r="J17" s="18">
         <v>1000000</v>
       </c>
-      <c r="K17" s="58">
+      <c r="K17" s="33">
         <f t="shared" si="0"/>
         <v>1.2621774483536189E-21</v>
       </c>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43">
-        <v>100000</v>
-      </c>
-      <c r="N17" s="60">
+      <c r="L17" s="18"/>
+      <c r="M17" s="18">
+        <v>100000</v>
+      </c>
+      <c r="N17" s="35">
         <f t="shared" si="1"/>
         <v>1.2621774483536189E-22</v>
       </c>
-      <c r="O17" s="44"/>
-      <c r="P17" s="43">
-        <v>100000</v>
-      </c>
-      <c r="Q17" s="60">
+      <c r="O17" s="19"/>
+      <c r="P17" s="18">
+        <v>100000</v>
+      </c>
+      <c r="Q17" s="35">
         <f t="shared" si="2"/>
         <v>1.2621774483536189E-22</v>
       </c>
-      <c r="R17" s="44"/>
-      <c r="S17" s="43"/>
-      <c r="T17" s="63">
+      <c r="R17" s="19"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U17" s="44"/>
-      <c r="V17" s="43"/>
-      <c r="W17" s="67">
+      <c r="U17" s="19"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="19">
+      <c r="A18" s="12">
         <v>8</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="11"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="63"/>
       <c r="F18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="12">
-        <f t="shared" ref="G18:G20" si="16">6^(B17-2)</f>
+      <c r="G18" s="8">
+        <f t="shared" ref="G18" si="16">6^(B17-2)</f>
         <v>2.2452257707354558E+37</v>
       </c>
-      <c r="H18" s="41" t="s">
+      <c r="H18" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43">
+      <c r="I18" s="18"/>
+      <c r="J18" s="18">
         <v>1000000</v>
       </c>
-      <c r="K18" s="58">
+      <c r="K18" s="33">
         <f t="shared" si="0"/>
         <v>4.453895073867942E-30</v>
       </c>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43">
-        <v>100000</v>
-      </c>
-      <c r="N18" s="60">
+      <c r="L18" s="18"/>
+      <c r="M18" s="18">
+        <v>100000</v>
+      </c>
+      <c r="N18" s="35">
         <f t="shared" si="1"/>
         <v>4.4538950738679422E-31</v>
       </c>
-      <c r="O18" s="44"/>
-      <c r="P18" s="43">
-        <v>100000</v>
-      </c>
-      <c r="Q18" s="60">
+      <c r="O18" s="19"/>
+      <c r="P18" s="18">
+        <v>100000</v>
+      </c>
+      <c r="Q18" s="35">
         <f t="shared" si="2"/>
         <v>4.4538950738679422E-31</v>
       </c>
-      <c r="R18" s="44"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="63">
+      <c r="R18" s="19"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U18" s="44"/>
-      <c r="V18" s="43"/>
-      <c r="W18" s="67">
+      <c r="U18" s="19"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="19">
+      <c r="A19" s="12">
         <v>9</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="65">
         <v>50</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="66">
         <v>23</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="67">
         <v>21</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="63">
         <v>6</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="12">
-        <f t="shared" ref="G19:G20" si="17">4^(B19-2)</f>
+      <c r="G19" s="8">
+        <f t="shared" ref="G19" si="17">4^(B19-2)</f>
         <v>7.9228162514264338E+28</v>
       </c>
-      <c r="H19" s="41" t="s">
+      <c r="H19" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43">
+      <c r="I19" s="18"/>
+      <c r="J19" s="18">
         <v>1000000</v>
       </c>
-      <c r="K19" s="58">
+      <c r="K19" s="33">
         <f t="shared" si="0"/>
         <v>1.2621774483536189E-21</v>
       </c>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43">
-        <v>100000</v>
-      </c>
-      <c r="N19" s="61">
+      <c r="L19" s="18"/>
+      <c r="M19" s="18">
+        <v>100000</v>
+      </c>
+      <c r="N19" s="36">
         <f t="shared" si="1"/>
         <v>1.2621774483536189E-22</v>
       </c>
-      <c r="O19" s="44"/>
-      <c r="P19" s="43">
-        <v>100000</v>
-      </c>
-      <c r="Q19" s="61">
+      <c r="O19" s="19"/>
+      <c r="P19" s="18">
+        <v>100000</v>
+      </c>
+      <c r="Q19" s="36">
         <f t="shared" si="2"/>
         <v>1.2621774483536189E-22</v>
       </c>
-      <c r="R19" s="44"/>
-      <c r="S19" s="43"/>
-      <c r="T19" s="64">
+      <c r="R19" s="19"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U19" s="44"/>
-      <c r="V19" s="43"/>
-      <c r="W19" s="67">
+      <c r="U19" s="19"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20">
+      <c r="A20" s="13">
         <v>9</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="25" t="s">
+      <c r="B20" s="68"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G20" s="15">
         <f t="shared" ref="G20" si="18">6^(B19-2)</f>
         <v>2.2452257707354558E+37</v>
       </c>
-      <c r="H20" s="42" t="s">
+      <c r="H20" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="I20" s="46"/>
-      <c r="J20" s="70">
+      <c r="I20" s="21"/>
+      <c r="J20" s="45">
         <v>1000000</v>
       </c>
-      <c r="K20" s="59">
+      <c r="K20" s="34">
         <f t="shared" si="0"/>
         <v>4.453895073867942E-30</v>
       </c>
-      <c r="L20" s="45"/>
-      <c r="M20" s="70">
-        <v>100000</v>
-      </c>
-      <c r="N20" s="62">
+      <c r="L20" s="20"/>
+      <c r="M20" s="45">
+        <v>100000</v>
+      </c>
+      <c r="N20" s="37">
         <f t="shared" si="1"/>
         <v>4.4538950738679422E-31</v>
       </c>
-      <c r="O20" s="46"/>
-      <c r="P20" s="70">
-        <v>100000</v>
-      </c>
-      <c r="Q20" s="62">
+      <c r="O20" s="21"/>
+      <c r="P20" s="45">
+        <v>100000</v>
+      </c>
+      <c r="Q20" s="37">
         <f t="shared" si="2"/>
         <v>4.4538950738679422E-31</v>
       </c>
-      <c r="R20" s="46"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="65">
+      <c r="R20" s="21"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U20" s="46"/>
-      <c r="V20" s="45"/>
-      <c r="W20" s="68">
+      <c r="U20" s="21"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="43">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -2404,7 +2414,7 @@
       <c r="V21" s="1"/>
     </row>
     <row r="22" spans="1:23" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I22" s="53"/>
+      <c r="I22" s="28"/>
       <c r="J22" t="s">
         <v>18</v>
       </c>
@@ -2416,17 +2426,17 @@
       </c>
     </row>
     <row r="23" spans="1:23" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="I23" s="52"/>
+      <c r="I23" s="27"/>
       <c r="J23" t="s">
         <v>19</v>
       </c>
-      <c r="N23" s="69"/>
+      <c r="N23" s="44"/>
       <c r="O23" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I24" s="54"/>
+      <c r="I24" s="29"/>
       <c r="J24" t="s">
         <v>20</v>
       </c>
@@ -2439,24 +2449,21 @@
     <row r="30" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="B5:B6"/>
@@ -2473,21 +2480,24 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:D16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/StateSpace.xlsx
+++ b/StateSpace.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaralinders/Documents/mprog/PyCharm/Proteins/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marrit\Documents\School\2017-2018\Heuristieken\Proteins\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50257972-0834-49A1-A0E8-661B030CAA2D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="28800" windowHeight="17460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="25">
   <si>
     <t>Randomizer</t>
   </si>
@@ -101,16 +102,13 @@
     <t>?</t>
   </si>
   <si>
-    <t>zit al op -13 bij 100000 keer prunen…</t>
-  </si>
-  <si>
     <t xml:space="preserve">bij 350000 keer prunen op -7 … </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -206,7 +204,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,6 +240,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="30">
     <border>
@@ -612,7 +616,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -737,6 +741,60 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -758,77 +816,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="7" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="2" builtinId="10"/>
+    <cellStyle name="Kop 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Notitie" xfId="2" builtinId="10"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -840,6 +847,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1107,86 +1117,86 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="25.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.296875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="3.5" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" style="5" customWidth="1"/>
-    <col min="9" max="23" width="10.83203125" customWidth="1"/>
-    <col min="24" max="27" width="25.83203125" customWidth="1"/>
-    <col min="28" max="28" width="20.83203125" customWidth="1"/>
+    <col min="7" max="7" width="18.69921875" customWidth="1"/>
+    <col min="8" max="8" width="18.69921875" style="5" customWidth="1"/>
+    <col min="9" max="23" width="10.796875" customWidth="1"/>
+    <col min="24" max="27" width="25.796875" customWidth="1"/>
+    <col min="28" max="28" width="20.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="40" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:23" ht="40.049999999999997" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="52" t="s">
+      <c r="I1" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="66"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="48"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="52" t="s">
+      <c r="M1" s="66"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="52" t="s">
+      <c r="P1" s="66"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="48"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="52" t="s">
+      <c r="S1" s="66"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="48"/>
-      <c r="W1" s="50"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="68"/>
     </row>
-    <row r="2" spans="1:23" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="51"/>
+    <row r="2" spans="1:23" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="55"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="69"/>
       <c r="I2" s="9" t="s">
         <v>13</v>
       </c>
@@ -1233,20 +1243,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="25.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="65">
+      <c r="B3" s="46">
         <v>8</v>
       </c>
-      <c r="C3" s="66">
+      <c r="C3" s="47">
         <v>2</v>
       </c>
-      <c r="D3" s="67">
+      <c r="D3" s="48">
         <v>6</v>
       </c>
-      <c r="E3" s="63">
+      <c r="E3" s="49">
         <v>0</v>
       </c>
       <c r="F3" s="6" t="s">
@@ -1310,14 +1320,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="63"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
       <c r="F4" s="6" t="s">
         <v>5</v>
       </c>
@@ -1379,20 +1389,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>2</v>
       </c>
-      <c r="B5" s="65">
+      <c r="B5" s="46">
         <v>14</v>
       </c>
-      <c r="C5" s="66">
+      <c r="C5" s="47">
         <v>4</v>
       </c>
-      <c r="D5" s="67">
+      <c r="D5" s="48">
         <v>10</v>
       </c>
-      <c r="E5" s="63">
+      <c r="E5" s="49">
         <v>0</v>
       </c>
       <c r="F5" s="6" t="s">
@@ -1456,14 +1466,14 @@
         <v>2.7954578399658203E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>2</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="63"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="49"/>
       <c r="F6" s="6" t="s">
         <v>5</v>
       </c>
@@ -1525,20 +1535,20 @@
         <v>2.8696484240489538E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>3</v>
       </c>
-      <c r="B7" s="65">
+      <c r="B7" s="46">
         <v>20</v>
       </c>
-      <c r="C7" s="66">
+      <c r="C7" s="47">
         <v>10</v>
       </c>
-      <c r="D7" s="67">
+      <c r="D7" s="48">
         <v>10</v>
       </c>
-      <c r="E7" s="63">
+      <c r="E7" s="49">
         <v>0</v>
       </c>
       <c r="F7" s="6" t="s">
@@ -1602,14 +1612,14 @@
         <v>8.9785316959023476E-7</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>3</v>
       </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="63"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="49"/>
       <c r="F8" s="6" t="s">
         <v>5</v>
       </c>
@@ -1657,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V8" s="18"/>
       <c r="W8" s="42">
@@ -1665,20 +1675,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>4</v>
       </c>
-      <c r="B9" s="65">
+      <c r="B9" s="46">
         <v>36</v>
       </c>
-      <c r="C9" s="66">
+      <c r="C9" s="47">
         <v>20</v>
       </c>
-      <c r="D9" s="67">
+      <c r="D9" s="48">
         <v>16</v>
       </c>
-      <c r="E9" s="63">
+      <c r="E9" s="49">
         <v>0</v>
       </c>
       <c r="F9" s="6" t="s">
@@ -1727,23 +1737,25 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U9" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="V9" s="18"/>
-      <c r="W9" s="42">
+      <c r="U9" s="26">
+        <v>-13</v>
+      </c>
+      <c r="V9" s="18">
+        <v>40</v>
+      </c>
+      <c r="W9" s="71">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.3552527156068805E-17</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>4</v>
       </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="63"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="49"/>
       <c r="F10" s="6" t="s">
         <v>5</v>
       </c>
@@ -1797,20 +1809,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>5</v>
       </c>
-      <c r="B11" s="65">
+      <c r="B11" s="46">
         <v>50</v>
       </c>
-      <c r="C11" s="66">
+      <c r="C11" s="47">
         <v>16</v>
       </c>
-      <c r="D11" s="67">
+      <c r="D11" s="48">
         <v>24</v>
       </c>
-      <c r="E11" s="63">
+      <c r="E11" s="49">
         <v>0</v>
       </c>
       <c r="F11" s="6" t="s">
@@ -1866,14 +1878,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>5</v>
       </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="63"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="49"/>
       <c r="F12" s="6" t="s">
         <v>5</v>
       </c>
@@ -1927,20 +1939,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>6</v>
       </c>
-      <c r="B13" s="65">
+      <c r="B13" s="46">
         <v>36</v>
       </c>
-      <c r="C13" s="66">
+      <c r="C13" s="47">
         <v>18</v>
       </c>
-      <c r="D13" s="67">
+      <c r="D13" s="48">
         <v>14</v>
       </c>
-      <c r="E13" s="63">
+      <c r="E13" s="49">
         <v>4</v>
       </c>
       <c r="F13" s="6" t="s">
@@ -1990,14 +2002,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>6</v>
       </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="63"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="49"/>
       <c r="F14" s="6" t="s">
         <v>5</v>
       </c>
@@ -2045,20 +2057,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>7</v>
       </c>
-      <c r="B15" s="65">
+      <c r="B15" s="46">
         <v>36</v>
       </c>
-      <c r="C15" s="66">
+      <c r="C15" s="47">
         <v>15</v>
       </c>
-      <c r="D15" s="67">
+      <c r="D15" s="48">
         <v>11</v>
       </c>
-      <c r="E15" s="63">
+      <c r="E15" s="49">
         <v>10</v>
       </c>
       <c r="F15" s="6" t="s">
@@ -2108,14 +2120,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>7</v>
       </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="63"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="49"/>
       <c r="F16" s="6" t="s">
         <v>5</v>
       </c>
@@ -2163,20 +2175,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>8</v>
       </c>
-      <c r="B17" s="65">
+      <c r="B17" s="46">
         <v>50</v>
       </c>
-      <c r="C17" s="66">
+      <c r="C17" s="47">
         <v>21</v>
       </c>
-      <c r="D17" s="67">
+      <c r="D17" s="48">
         <v>19</v>
       </c>
-      <c r="E17" s="63">
+      <c r="E17" s="49">
         <v>10</v>
       </c>
       <c r="F17" s="6" t="s">
@@ -2226,14 +2238,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>8</v>
       </c>
-      <c r="B18" s="65"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="63"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="49"/>
       <c r="F18" s="6" t="s">
         <v>5</v>
       </c>
@@ -2281,20 +2293,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>9</v>
       </c>
-      <c r="B19" s="65">
+      <c r="B19" s="46">
         <v>50</v>
       </c>
-      <c r="C19" s="66">
+      <c r="C19" s="47">
         <v>23</v>
       </c>
-      <c r="D19" s="67">
+      <c r="D19" s="48">
         <v>21</v>
       </c>
-      <c r="E19" s="63">
+      <c r="E19" s="49">
         <v>6</v>
       </c>
       <c r="F19" s="6" t="s">
@@ -2344,14 +2356,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="13">
         <v>9</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="64"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="50"/>
       <c r="F20" s="14" t="s">
         <v>5</v>
       </c>
@@ -2399,7 +2411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G21" s="1"/>
       <c r="H21" s="4"/>
       <c r="I21" s="1"/>
@@ -2413,7 +2425,7 @@
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
     </row>
-    <row r="22" spans="1:23" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I22" s="28"/>
       <c r="J22" t="s">
         <v>18</v>
@@ -2425,7 +2437,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" ht="25.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="I23" s="27"/>
       <c r="J23" t="s">
         <v>19</v>
@@ -2435,35 +2447,38 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I24" s="29"/>
       <c r="J24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="B5:B6"/>
@@ -2480,24 +2495,21 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/StateSpace.xlsx
+++ b/StateSpace.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marrit\Documents\School\2017-2018\Heuristieken\Proteins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50257972-0834-49A1-A0E8-661B030CAA2D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D080FDCE-FA55-41DE-A6D6-56301B356D73}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="456" windowWidth="28800" windowHeight="17460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -242,7 +242,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1120,8 +1120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="25.8" x14ac:dyDescent="0.3"/>
@@ -1804,7 +1804,7 @@
       </c>
       <c r="U10" s="19"/>
       <c r="V10" s="18"/>
-      <c r="W10" s="42">
+      <c r="W10" s="71">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1873,7 +1873,7 @@
       </c>
       <c r="U11" s="19"/>
       <c r="V11" s="18"/>
-      <c r="W11" s="42">
+      <c r="W11" s="71">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1934,7 +1934,7 @@
       </c>
       <c r="U12" s="19"/>
       <c r="V12" s="18"/>
-      <c r="W12" s="42">
+      <c r="W12" s="71">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1995,11 +1995,15 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U13" s="19"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="42">
+      <c r="U13" s="19">
+        <v>-25</v>
+      </c>
+      <c r="V13" s="18">
+        <v>48</v>
+      </c>
+      <c r="W13" s="71">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.6263032587282567E-17</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -2052,7 +2056,7 @@
       </c>
       <c r="U14" s="19"/>
       <c r="V14" s="18"/>
-      <c r="W14" s="42">
+      <c r="W14" s="71">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
